--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -4,57 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="23640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11955" windowHeight="23640"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Info" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O76"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
-  <si>
-    <t>tp01</t>
-  </si>
-  <si>
-    <t>Gopal</t>
-  </si>
-  <si>
-    <t>Technical Manager</t>
-  </si>
-  <si>
-    <t>tp02</t>
-  </si>
-  <si>
-    <t>Proof Reader</t>
-  </si>
-  <si>
-    <t>tp03</t>
-  </si>
-  <si>
-    <t>Masthan</t>
-  </si>
-  <si>
-    <t>Technical Writer</t>
-  </si>
-  <si>
-    <t>tp04</t>
-  </si>
-  <si>
-    <t>tp05</t>
-  </si>
-  <si>
-    <t>Krishna</t>
-  </si>
-  <si>
-    <t>sdfgsdgfgfgfgfgfgfgfgfgfgfgfgfgfgfgfgfgfgfgfgfgf</t>
-  </si>
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>PART NAME</t>
   </si>
@@ -72,14 +33,31 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Sprocket</t>
+  </si>
+  <si>
+    <t>Carlingview</t>
+  </si>
+  <si>
+    <t>4568794231</t>
+  </si>
+  <si>
+    <t>PLC Room</t>
+  </si>
+  <si>
+    <t>EN-23</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -424,94 +402,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.42578125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="43.85546875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.7109375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.140625" collapsed="false"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>PART NAME</t>
   </si>
@@ -51,13 +51,44 @@
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">too </t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>4987321</t>
+  </si>
+  <si>
+    <t>Mezzanine</t>
+  </si>
+  <si>
+    <t>EN-48</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>asf</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>a-q</t>
+  </si>
+  <si>
+    <t>qq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -410,11 +441,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -457,6 +488,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
   <si>
     <t>PART NAME</t>
   </si>
@@ -81,6 +81,252 @@
   </si>
   <si>
     <t>qq</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>564987231321</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>EN-25</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>12341234</t>
+  </si>
+  <si>
+    <t>Electrical Room</t>
+  </si>
+  <si>
+    <t>en-12</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>54987231</t>
+  </si>
+  <si>
+    <t>AS-78</t>
+  </si>
+  <si>
+    <t>216987987</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>645987</t>
+  </si>
+  <si>
+    <t>ew-59</t>
+  </si>
+  <si>
+    <t>654987</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>ae-12</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>897564312</t>
+  </si>
+  <si>
+    <t>Mezzanine Room</t>
+  </si>
+  <si>
+    <t>EN-12</t>
+  </si>
+  <si>
+    <t>897984</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>1234123423</t>
+  </si>
+  <si>
+    <t>ev-23</t>
+  </si>
+  <si>
+    <t>987943251324586</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>qw</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>h-3</t>
+  </si>
+  <si>
+    <t>h35h</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>23-44</t>
+  </si>
+  <si>
+    <t>2222222222222222222222222222222</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>sasssss</t>
+  </si>
+  <si>
+    <t>212334</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>qasdf</t>
+  </si>
+  <si>
+    <t>12341234-12341234</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>00000000000</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>111111111111</t>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>9999999</t>
+  </si>
+  <si>
+    <t>9-9</t>
+  </si>
+  <si>
+    <t>999999999999</t>
+  </si>
+  <si>
+    <t>444444444</t>
+  </si>
+  <si>
+    <t>44444444</t>
+  </si>
+  <si>
+    <t>44-4</t>
+  </si>
+  <si>
+    <t>444444</t>
+  </si>
+  <si>
+    <t>eightmonths</t>
+  </si>
+  <si>
+    <t>eightmonths-eightmonths</t>
+  </si>
+  <si>
+    <t>77777777777</t>
+  </si>
+  <si>
+    <t>7777777777777777777</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>77-77</t>
+  </si>
+  <si>
+    <t>7777777777777777</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>fantastic-fantastic</t>
+  </si>
+  <si>
+    <t>asdf-asdf</t>
   </si>
 </sst>
 </file>
@@ -528,6 +774,426 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
   <si>
     <t>PART NAME</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>asdf-asdf</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>fi-23</t>
+  </si>
+  <si>
+    <t>3223233</t>
   </si>
 </sst>
 </file>
@@ -1194,6 +1203,26 @@
         <v>52</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -3,19 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakim\git\Parts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11955" windowHeight="23640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11955" windowHeight="23640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Info" sheetId="2" r:id="rId1"/>
+    <sheet name="Manufacturer" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
   <si>
     <t>PART NAME</t>
   </si>
@@ -336,6 +341,24 @@
   </si>
   <si>
     <t>3223233</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Subway</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>789789789789789</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
   </si>
 </sst>
 </file>
@@ -688,9 +711,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -743,484 +766,567 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11955" windowHeight="23640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11955" windowHeight="23640"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Info" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
   <si>
     <t>PART NAME</t>
   </si>
@@ -43,51 +43,15 @@
     <t>Sprocket</t>
   </si>
   <si>
-    <t>Carlingview</t>
-  </si>
-  <si>
-    <t>4568794231</t>
-  </si>
-  <si>
     <t>PLC Room</t>
   </si>
   <si>
-    <t>EN-23</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">too </t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>4987321</t>
-  </si>
-  <si>
     <t>Mezzanine</t>
   </si>
   <si>
-    <t>EN-48</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>asf</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>a-q</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
     <t>Google</t>
   </si>
   <si>
@@ -97,9 +61,6 @@
     <t>Plant</t>
   </si>
   <si>
-    <t>EN-25</t>
-  </si>
-  <si>
     <t>46</t>
   </si>
   <si>
@@ -253,96 +214,9 @@
     <t>qasdf</t>
   </si>
   <si>
-    <t>12341234-12341234</t>
-  </si>
-  <si>
-    <t>0000000000</t>
-  </si>
-  <si>
-    <t>00000000000</t>
-  </si>
-  <si>
-    <t>0-0</t>
-  </si>
-  <si>
-    <t>111111111</t>
-  </si>
-  <si>
-    <t>1111111111</t>
-  </si>
-  <si>
-    <t>11111</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>111111111111</t>
-  </si>
-  <si>
-    <t>999999999</t>
-  </si>
-  <si>
-    <t>9999999</t>
-  </si>
-  <si>
-    <t>9-9</t>
-  </si>
-  <si>
-    <t>999999999999</t>
-  </si>
-  <si>
-    <t>444444444</t>
-  </si>
-  <si>
-    <t>44444444</t>
-  </si>
-  <si>
-    <t>44-4</t>
-  </si>
-  <si>
-    <t>444444</t>
-  </si>
-  <si>
     <t>eightmonths</t>
   </si>
   <si>
-    <t>eightmonths-eightmonths</t>
-  </si>
-  <si>
-    <t>77777777777</t>
-  </si>
-  <si>
-    <t>7777777777777777777</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>77-77</t>
-  </si>
-  <si>
-    <t>7777777777777777</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>fantastic-fantastic</t>
-  </si>
-  <si>
-    <t>asdf-asdf</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>fi-23</t>
-  </si>
-  <si>
-    <t>3223233</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -359,6 +233,60 @@
   </si>
   <si>
     <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>23232323</t>
+  </si>
+  <si>
+    <t>toughtytatat</t>
+  </si>
+  <si>
+    <t>21341234</t>
+  </si>
+  <si>
+    <t>aa-22</t>
+  </si>
+  <si>
+    <t>2323</t>
+  </si>
+  <si>
+    <t>eightmonths in the year</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>43431234</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>cc-cc</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>fsdg</t>
+  </si>
+  <si>
+    <t>sdfgsdfg</t>
+  </si>
+  <si>
+    <t>er-er</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>asdfasdfasdfasdfprobably</t>
   </si>
 </sst>
 </file>
@@ -711,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,113 +679,113 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -868,67 +796,67 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -937,7 +865,7 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
@@ -957,30 +885,30 @@
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
         <v>64</v>
@@ -988,262 +916,102 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>72</v>
       </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F13" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1253,9 +1021,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
@@ -1266,67 +1034,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="102">
   <si>
     <t>PART NAME</t>
   </si>
@@ -287,6 +287,45 @@
   </si>
   <si>
     <t>asdfasdfasdfasdfprobably</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>ccccccw</t>
+  </si>
+  <si>
+    <t>rr-rr</t>
+  </si>
+  <si>
+    <t>3333333</t>
+  </si>
+  <si>
+    <t>,,,,,,,,,,/////////</t>
+  </si>
+  <si>
+    <t>////p0</t>
+  </si>
+  <si>
+    <t>0-0-</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ddddddd</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>g-g</t>
+  </si>
+  <si>
+    <t>23-4477</t>
+  </si>
+  <si>
+    <t>78-8888</t>
   </si>
 </sst>
 </file>
@@ -688,7 +727,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -719,7 +758,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -859,7 +898,7 @@
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
@@ -868,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -999,7 +1038,7 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
@@ -1012,6 +1051,66 @@
       </c>
       <c r="F13" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -16,11 +16,12 @@
     <sheet name="Manufacturer" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
   <si>
     <t>PART NAME</t>
   </si>
@@ -85,9 +86,6 @@
     <t>apple</t>
   </si>
   <si>
-    <t>banana</t>
-  </si>
-  <si>
     <t>54987231</t>
   </si>
   <si>
@@ -184,36 +182,18 @@
     <t>13</t>
   </si>
   <si>
-    <t>23-44</t>
-  </si>
-  <si>
     <t>2222222222222222222222222222222</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
     <t>1-2</t>
   </si>
   <si>
-    <t>sasssss</t>
-  </si>
-  <si>
-    <t>212334</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>qasdf</t>
-  </si>
-  <si>
     <t>eightmonths</t>
   </si>
   <si>
@@ -265,61 +245,13 @@
     <t>43431234</t>
   </si>
   <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>cc-cc</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>fsdg</t>
-  </si>
-  <si>
-    <t>sdfgsdfg</t>
-  </si>
-  <si>
-    <t>er-er</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>asdfasdfasdfasdfprobably</t>
-  </si>
-  <si>
-    <t>cccc</t>
-  </si>
-  <si>
-    <t>ccccccw</t>
-  </si>
-  <si>
-    <t>rr-rr</t>
-  </si>
-  <si>
-    <t>3333333</t>
-  </si>
-  <si>
     <t>,,,,,,,,,,/////////</t>
   </si>
   <si>
     <t>////p0</t>
   </si>
   <si>
-    <t>0-0-</t>
-  </si>
-  <si>
     <t>----</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ddddddd</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>g-g</t>
   </si>
   <si>
     <t>23-4477</t>
@@ -678,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -727,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -761,16 +693,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -778,19 +710,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -798,16 +730,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -815,302 +747,122 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
         <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1133,42 +885,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1178,27 +930,27 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -827,41 +827,21 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
         <v>76</v>
       </c>
     </row>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>PART NAME</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>78-8888</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -845,6 +848,26 @@
         <v>76</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -5,23 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakim\git\Parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11955" windowHeight="23640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25395"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Info" sheetId="2" r:id="rId1"/>
     <sheet name="Manufacturer" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="126">
   <si>
     <t>PART NAME</t>
   </si>
@@ -41,226 +40,364 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Sprocket</t>
-  </si>
-  <si>
-    <t>PLC Room</t>
-  </si>
-  <si>
-    <t>Mezzanine</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>564987231321</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>12341234</t>
-  </si>
-  <si>
-    <t>Electrical Room</t>
-  </si>
-  <si>
-    <t>en-12</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>54987231</t>
-  </si>
-  <si>
-    <t>AS-78</t>
-  </si>
-  <si>
-    <t>216987987</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>645987</t>
-  </si>
-  <si>
-    <t>ew-59</t>
-  </si>
-  <si>
-    <t>654987</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>ae-12</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>897564312</t>
-  </si>
-  <si>
     <t>Mezzanine Room</t>
   </si>
   <si>
-    <t>EN-12</t>
-  </si>
-  <si>
-    <t>897984</t>
-  </si>
-  <si>
-    <t>lol</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>1234123423</t>
-  </si>
-  <si>
-    <t>ev-23</t>
-  </si>
-  <si>
-    <t>987943251324586</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>qw</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>h-3</t>
-  </si>
-  <si>
-    <t>h35h</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2222222222222222222222222222222</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>eightmonths</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Subway</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>789789789789789</t>
-  </si>
-  <si>
-    <t>asdfasdf</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>23232323</t>
-  </si>
-  <si>
-    <t>toughtytatat</t>
-  </si>
-  <si>
-    <t>21341234</t>
-  </si>
-  <si>
-    <t>aa-22</t>
-  </si>
-  <si>
-    <t>2323</t>
-  </si>
-  <si>
-    <t>eightmonths in the year</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>43431234</t>
-  </si>
-  <si>
-    <t>,,,,,,,,,,/////////</t>
-  </si>
-  <si>
-    <t>////p0</t>
-  </si>
-  <si>
-    <t>----</t>
-  </si>
-  <si>
-    <t>23-4477</t>
-  </si>
-  <si>
-    <t>78-8888</t>
+    <t>COMPACT CYLINDER</t>
+  </si>
+  <si>
+    <t>FESTO</t>
+  </si>
+  <si>
+    <t>ADN-32-40-I-P-A-Q</t>
+  </si>
+  <si>
+    <t>NQ-C</t>
+  </si>
+  <si>
+    <t>STANDARD CYLINDER</t>
+  </si>
+  <si>
+    <t>DSNU-20-200-P-A, 19215</t>
+  </si>
+  <si>
+    <t>DSNU-20-40-P-A-S2, 13103514</t>
+  </si>
+  <si>
+    <t>CYLINDER</t>
+  </si>
+  <si>
+    <t>ADN-40-50-A-P-A, 536296, C441</t>
+  </si>
+  <si>
+    <t>PANEL MOUNTING VALVE</t>
+  </si>
+  <si>
+    <t>SV-5M5-B, SERIES H908, 11914</t>
+  </si>
+  <si>
+    <t>NQ-B</t>
+  </si>
+  <si>
+    <t>PNEUMATIC CYLINDER</t>
+  </si>
+  <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>NCGBN40-0100A-XC9</t>
+  </si>
+  <si>
+    <t>NQ-D</t>
+  </si>
+  <si>
+    <t>ROUND CYLINDER</t>
+  </si>
+  <si>
+    <t>DSNU-32-50-P-A, 195982</t>
+  </si>
+  <si>
+    <t>DSNU-25-190-P-AAA-SA, 28628233000010</t>
+  </si>
+  <si>
+    <t>NCA1D200-0100</t>
+  </si>
+  <si>
+    <t>NCA1B250-0300</t>
+  </si>
+  <si>
+    <t>DSNU-16-80-PPS-A</t>
+  </si>
+  <si>
+    <t>NQ-E</t>
+  </si>
+  <si>
+    <t>DSNU-16-80-PPV-A</t>
+  </si>
+  <si>
+    <t>DSBC-50-70-PPVA-N3</t>
+  </si>
+  <si>
+    <t>DSNU-20-25-P, 13103513</t>
+  </si>
+  <si>
+    <t>ESNU-20-30-P-A</t>
+  </si>
+  <si>
+    <t>MGPM32-50Z</t>
+  </si>
+  <si>
+    <t>FITTINGS</t>
+  </si>
+  <si>
+    <t>KQ2H08-01AS</t>
+  </si>
+  <si>
+    <t>KQ2L08-01AS</t>
+  </si>
+  <si>
+    <t>KQ2H04-U01A</t>
+  </si>
+  <si>
+    <t>DSNU-20-50-PPS-A</t>
+  </si>
+  <si>
+    <t>ADN-50-20-A-PPS-A</t>
+  </si>
+  <si>
+    <t>NQ-F</t>
+  </si>
+  <si>
+    <t>ADN-16-25-A-P-A</t>
+  </si>
+  <si>
+    <t>CRDSNU-25-25-P-A, 13103508</t>
+  </si>
+  <si>
+    <t>ESNU-25-30-P-A</t>
+  </si>
+  <si>
+    <t>BIMBA</t>
+  </si>
+  <si>
+    <t>313DXPBX</t>
+  </si>
+  <si>
+    <t>DSNU-63-55-P-A, 13103526</t>
+  </si>
+  <si>
+    <t>DSNU-63-220-P-A, 13103529</t>
+  </si>
+  <si>
+    <t>NQ-G</t>
+  </si>
+  <si>
+    <t>DSNU-63-254-P-A, 13103527</t>
+  </si>
+  <si>
+    <t>DSNU-63-407-P-A, 13103544</t>
+  </si>
+  <si>
+    <t>DNC-40-160-PPV-A</t>
+  </si>
+  <si>
+    <t>DSBC-100-400-PPVA-N3</t>
+  </si>
+  <si>
+    <t>DNC-125-250-PPV-A-EX4, 13103507</t>
+  </si>
+  <si>
+    <t>NCDA1B325-1400-A54S-XB5</t>
+  </si>
+  <si>
+    <t>REGULATOR PLATE</t>
+  </si>
+  <si>
+    <t>VABF-S4-1-R1C2-C-10, 540154, F502</t>
+  </si>
+  <si>
+    <t>NR-B</t>
+  </si>
+  <si>
+    <t>SHOCK ABSORBER</t>
+  </si>
+  <si>
+    <t>YSRW-DGC-25-KF, 540349 H5</t>
+  </si>
+  <si>
+    <t>NR-C</t>
+  </si>
+  <si>
+    <t>BASIC VALVE</t>
+  </si>
+  <si>
+    <t>LFMA-D-M1D1-A-U, 00546446 E941</t>
+  </si>
+  <si>
+    <t>VALVE</t>
+  </si>
+  <si>
+    <t>MS6-EE-1/2-V24, 527682</t>
+  </si>
+  <si>
+    <t>MS4-EE-1/4-V24, 527709</t>
+  </si>
+  <si>
+    <t>SOLENOID VALVE</t>
+  </si>
+  <si>
+    <t>JMFH-5-1/4-EX</t>
+  </si>
+  <si>
+    <t>COVER PLATE</t>
+  </si>
+  <si>
+    <t>VABB-S4-2-WT</t>
+  </si>
+  <si>
+    <t>VUVG-B14-B52-ZT-F-1P3, 566517</t>
+  </si>
+  <si>
+    <t>HAND LEVER VALVE</t>
+  </si>
+  <si>
+    <t>CHER-AH-MO4E-G14-LD, D814, 538186</t>
+  </si>
+  <si>
+    <t>SUB-BASE</t>
+  </si>
+  <si>
+    <t>VAVE-L1-1VK7-LP</t>
+  </si>
+  <si>
+    <t>VSVA-B-M52-AZD-A2-1T1L</t>
+  </si>
+  <si>
+    <t>NR-D</t>
+  </si>
+  <si>
+    <t>CPE18-M1H-5L-1/4</t>
+  </si>
+  <si>
+    <t>PRESSURE REGULATOR</t>
+  </si>
+  <si>
+    <t>LRMA-QS-8, 153497 D6</t>
+  </si>
+  <si>
+    <t>VALVE SOCKET</t>
+  </si>
+  <si>
+    <t>VERSA</t>
+  </si>
+  <si>
+    <t>P-1005-70-HC</t>
+  </si>
+  <si>
+    <t>DIRECTIONAL VALVE</t>
+  </si>
+  <si>
+    <t>EATON</t>
+  </si>
+  <si>
+    <t>DGMPC-3-ABK-BAK-41</t>
+  </si>
+  <si>
+    <t>VABB-S4-1-WT</t>
+  </si>
+  <si>
+    <t>VABS-S4-2S-G18-B-R3</t>
+  </si>
+  <si>
+    <t>CPE24-M1H-5J-3/8</t>
+  </si>
+  <si>
+    <t>VUVG-L14-B52-T-G18-1P3</t>
+  </si>
+  <si>
+    <t>NR-E</t>
+  </si>
+  <si>
+    <t>VSVA-B-D52-ZD-D1-1T1L</t>
+  </si>
+  <si>
+    <t>VSVA-B-T32C-AZD-A1-1T1L</t>
+  </si>
+  <si>
+    <t>SOFT START VALVE</t>
+  </si>
+  <si>
+    <t>NAV400-NO4-3DZ 1/2NPT</t>
+  </si>
+  <si>
+    <t>NAV400-NO4-5DZ</t>
+  </si>
+  <si>
+    <t>VSVA-B-M52-MZD-A1-1T1L</t>
+  </si>
+  <si>
+    <t>VSVA-B-M52-MZD-A2-1T1L</t>
+  </si>
+  <si>
+    <t>LOCTITE</t>
+  </si>
+  <si>
+    <t>222, 1ML</t>
+  </si>
+  <si>
+    <t>NR-F</t>
+  </si>
+  <si>
+    <t>HE-D-MINI, 170681</t>
+  </si>
+  <si>
+    <t>FILTER</t>
+  </si>
+  <si>
+    <t>MICRO, LFMA-D-MIDI-1</t>
+  </si>
+  <si>
+    <t>FILTER REGULATOR</t>
+  </si>
+  <si>
+    <t>LFR-1/4-D-5M-MINI</t>
+  </si>
+  <si>
+    <t>LFR-D-MINI, 546432</t>
+  </si>
+  <si>
+    <t>PROXIMITY SWITCH</t>
+  </si>
+  <si>
+    <t>ALLEN-BRADLEY</t>
+  </si>
+  <si>
+    <t>802PR-BX01</t>
+  </si>
+  <si>
+    <t>PISTON ROD</t>
+  </si>
+  <si>
+    <t>DSBC-YP-63-800</t>
+  </si>
+  <si>
+    <t>NR-G</t>
+  </si>
+  <si>
+    <t>DSNU-50-331-P-A-S2</t>
+  </si>
+  <si>
+    <t>LINEAR DRIVE</t>
+  </si>
+  <si>
+    <t>DGO-32-750-PPV-A-B</t>
+  </si>
+  <si>
+    <t>DSBC-63-228-PPSA-N3</t>
+  </si>
+  <si>
+    <t>ACTUATOR</t>
+  </si>
+  <si>
+    <t>VALBIA</t>
+  </si>
+  <si>
+    <t>82SR0118, SR100</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>UPAK</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>SETTINGS</t>
   </si>
 </sst>
 </file>
@@ -613,18 +750,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="7.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -650,222 +787,1382 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="F2">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
         <v>74</v>
       </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>79</v>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -875,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B2:D4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,72 +2185,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="122">
   <si>
     <t>PART NAME</t>
   </si>
@@ -386,18 +386,6 @@
   </si>
   <si>
     <t>82SR0118, SR100</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>UPAK</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>SETTINGS</t>
   </si>
 </sst>
 </file>
@@ -2218,26 +2206,6 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>125</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="123">
   <si>
     <t>PART NAME</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>82SR0118, SR100</t>
+  </si>
+  <si>
+    <t>PLC Room</t>
   </si>
 </sst>
 </file>
@@ -1695,13 +1698,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -1710,18 +1713,18 @@
         <v>78</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
@@ -1730,18 +1733,18 @@
         <v>78</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -1755,13 +1758,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
@@ -1770,7 +1773,7 @@
         <v>78</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,16 +1784,16 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1801,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
@@ -1810,7 +1813,7 @@
         <v>92</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
@@ -1830,18 +1833,18 @@
         <v>92</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
@@ -1850,7 +1853,7 @@
         <v>92</v>
       </c>
       <c r="F55">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1861,7 +1864,7 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -1875,13 +1878,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
@@ -1890,7 +1893,7 @@
         <v>92</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,7 +1904,7 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
@@ -1910,38 +1913,38 @@
         <v>92</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59">
-        <v>7</v>
+        <v>102</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -1950,18 +1953,18 @@
         <v>102</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -1970,18 +1973,18 @@
         <v>102</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -1995,13 +1998,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -2010,18 +2013,18 @@
         <v>102</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -2030,38 +2033,38 @@
         <v>102</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F65">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
@@ -2070,18 +2073,18 @@
         <v>114</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
@@ -2095,13 +2098,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
@@ -2110,47 +2113,7 @@
         <v>114</v>
       </c>
       <c r="F68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>118</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" t="s">
-        <v>114</v>
-      </c>
-      <c r="F69">
         <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -1918,33 +1918,33 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="E59" t="s">
         <v>102</v>
       </c>
-      <c r="F59" t="n">
-        <v>4.0</v>
+      <c r="F59">
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -1953,18 +1953,18 @@
         <v>102</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -1978,13 +1978,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -1993,18 +1993,18 @@
         <v>102</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -2013,38 +2013,38 @@
         <v>102</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F64">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
@@ -2053,18 +2053,18 @@
         <v>114</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
@@ -2078,13 +2078,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
@@ -2093,26 +2093,6 @@
         <v>114</v>
       </c>
       <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
-        <v>118</v>
-      </c>
-      <c r="D68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68">
         <v>2</v>
       </c>
     </row>

--- a/Parts/database.xlsx
+++ b/Parts/database.xlsx
@@ -1618,22 +1618,22 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -1658,13 +1658,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -1673,18 +1673,18 @@
         <v>78</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -1693,18 +1693,18 @@
         <v>78</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -1713,18 +1713,18 @@
         <v>78</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
@@ -1738,13 +1738,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -1753,7 +1753,7 @@
         <v>78</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,16 +1764,16 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1784,7 +1784,7 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -1793,7 +1793,7 @@
         <v>92</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
@@ -1813,18 +1813,18 @@
         <v>92</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
         <v>92</v>
       </c>
       <c r="F54">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1844,7 +1844,7 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -1873,58 +1873,58 @@
         <v>92</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
@@ -1933,18 +1933,18 @@
         <v>102</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -1953,18 +1953,18 @@
         <v>102</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -1973,58 +1973,58 @@
         <v>102</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F63">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -2033,18 +2033,18 @@
         <v>114</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
@@ -2053,46 +2053,6 @@
         <v>114</v>
       </c>
       <c r="F65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" t="s">
-        <v>114</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" t="s">
-        <v>114</v>
-      </c>
-      <c r="F67">
         <v>2</v>
       </c>
     </row>
